--- a/data/metadata/Informe-01-080101-010106-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010106-A-TC-TM-TP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
   <si>
     <t>ccaa-nombre</t>
   </si>
@@ -67,7 +67,7 @@
     <t>null</t>
   </si>
   <si>
-    <t>iaest-dimension:conyuges-del-titular-cuando-este-es-persona-fisica</t>
+    <t>iaest-measure:conyuges-del-titular-cuando-este-es-persona-fisica</t>
   </si>
   <si>
     <t>iaest-measure:titular-explotacion-es-persona-fisica</t>
@@ -82,16 +82,13 @@
     <t>iaest-measure:titular-explotacion-es-persona-fisica-mujer</t>
   </si>
   <si>
-    <t>iaest-measure:municipio-nombre</t>
-  </si>
-  <si>
     <t>sdmx-dimension:refArea</t>
   </si>
   <si>
     <t>iaest-measure:titular-explotacion-es-persona-fisica-hombre</t>
   </si>
   <si>
-    <t>iaest-dimension:el-jefe-de-la-explotacion-no-es-el-titular-mujer</t>
+    <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-mujer</t>
   </si>
   <si>
     <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-hombre</t>
@@ -109,6 +106,9 @@
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Municipio</t>
+  </si>
+  <si>
     <t>URI-Provincia</t>
   </si>
   <si>
@@ -116,12 +116,6 @@
   </si>
   <si>
     <t>mapping-ccaa-nombre.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-conyuges-del-titular-cuando-este-es-persona-fisica.xlsx</t>
-  </si>
-  <si>
-    <t>mapping-el-jefe-de-la-explotacion-no-es-el-titular-mujer.xlsx</t>
   </si>
 </sst>
 </file>
@@ -266,24 +260,24 @@
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -298,42 +292,42 @@
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -348,19 +342,19 @@
         <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>31</v>
@@ -369,13 +363,13 @@
         <v>32</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>30</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>33</v>
@@ -384,12 +378,6 @@
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/data/metadata/Informe-01-080101-010106-A-TC-TM-TP.xlsx
+++ b/data/metadata/Informe-01-080101-010106-A-TC-TM-TP.xlsx
@@ -11,111 +11,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
-  <si>
-    <t>ccaa-nombre</t>
-  </si>
-  <si>
-    <t>comarca-codigo</t>
-  </si>
-  <si>
-    <t>conyuges-del-titular-cuando-este-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>provincia-codigo</t>
-  </si>
-  <si>
-    <t>ccaa-codigo</t>
-  </si>
-  <si>
-    <t>titular-explotacion-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>municipio-codigo</t>
-  </si>
-  <si>
-    <t>titular-persona-fisica-y-jefe-explotacion</t>
-  </si>
-  <si>
-    <t>el-jefe-de-explotacion-no-es-el-titular</t>
-  </si>
-  <si>
-    <t>titular-explotacion-es-persona-fisica-mujer</t>
-  </si>
-  <si>
-    <t>municipio-nombre</t>
-  </si>
-  <si>
-    <t>provincia-nombre</t>
-  </si>
-  <si>
-    <t>titular-explotacion-es-persona-fisica-hombre</t>
-  </si>
-  <si>
-    <t>el-jefe-de-la-explotacion-no-es-el-titular-mujer</t>
-  </si>
-  <si>
-    <t>el-jefe-de-la-explotacion-no-es-el-titular-hombre</t>
-  </si>
-  <si>
-    <t>comarca-nombre</t>
-  </si>
-  <si>
-    <t>iaest-dimension:ccaa-nombre</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
+  <si>
+    <t>Titular persona física y jefe explotación</t>
+  </si>
+  <si>
+    <t>CCAA nombre</t>
+  </si>
+  <si>
+    <t>Titular explotación es persona física</t>
+  </si>
+  <si>
+    <t>Provincia codigo</t>
+  </si>
+  <si>
+    <t>Titular explotación es persona física hombre</t>
+  </si>
+  <si>
+    <t>El jefe de explotación no es el titular</t>
+  </si>
+  <si>
+    <t>Provincia nombre</t>
+  </si>
+  <si>
+    <t>El jefe de la explotación no es el titular mujer</t>
+  </si>
+  <si>
+    <t>Comarca codigo</t>
+  </si>
+  <si>
+    <t>Municipio nombre</t>
+  </si>
+  <si>
+    <t>Titular explotación es persona física mujer</t>
+  </si>
+  <si>
+    <t>El jefe de la explotación no es el titular hombre</t>
+  </si>
+  <si>
+    <t>Comarca nombre</t>
+  </si>
+  <si>
+    <t>CCAA código</t>
+  </si>
+  <si>
+    <t>Municipio código</t>
+  </si>
+  <si>
+    <t>Cónyuges del titular cuando éste es persona física</t>
+  </si>
+  <si>
+    <t>iaest-measure:titular-persona-fisica-y-jefe-explotacion</t>
+  </si>
+  <si>
+    <t>sdmx-dimension:refArea</t>
+  </si>
+  <si>
+    <t>iaest-measure:titular-explotacion-es-persona-fisica</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>iaest-measure:titular-explotacion-es-persona-fisica-hombre</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-jefe-de-explotacion-no-es-el-titular</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-mujer</t>
+  </si>
+  <si>
+    <t>iaest-measure:titular-explotacion-es-persona-fisica-mujer</t>
+  </si>
+  <si>
+    <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-hombre</t>
+  </si>
+  <si>
     <t>iaest-measure:conyuges-del-titular-cuando-este-es-persona-fisica</t>
   </si>
   <si>
-    <t>iaest-measure:titular-explotacion-es-persona-fisica</t>
-  </si>
-  <si>
-    <t>iaest-measure:titular-persona-fisica-y-jefe-explotacion</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-jefe-de-explotacion-no-es-el-titular</t>
-  </si>
-  <si>
-    <t>iaest-measure:titular-explotacion-es-persona-fisica-mujer</t>
-  </si>
-  <si>
-    <t>sdmx-dimension:refArea</t>
-  </si>
-  <si>
-    <t>iaest-measure:titular-explotacion-es-persona-fisica-hombre</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-mujer</t>
-  </si>
-  <si>
-    <t>iaest-measure:el-jefe-de-la-explotacion-no-es-el-titular-hombre</t>
+    <t>medida</t>
   </si>
   <si>
     <t>dim</t>
   </si>
   <si>
-    <t>medida</t>
-  </si>
-  <si>
-    <t>skos:Concept</t>
-  </si>
-  <si>
     <t>xsd:int</t>
   </si>
   <si>
+    <t>URI-Comunidad</t>
+  </si>
+  <si>
+    <t>URI-Provincia</t>
+  </si>
+  <si>
     <t>URI-Municipio</t>
   </si>
   <si>
-    <t>URI-Provincia</t>
-  </si>
-  <si>
     <t>URI-comarca</t>
-  </si>
-  <si>
-    <t>mapping-ccaa-nombre.xlsx</t>
   </si>
 </sst>
 </file>
@@ -236,148 +230,143 @@
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="N4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
